--- a/mbs-perturbation/mega/MLP/mega-mlp-results.xlsx
+++ b/mbs-perturbation/mega/MLP/mega-mlp-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6880000000000001</v>
+        <v>0.5026737967914439</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8709117383512546</v>
+        <v>0.8911850358422939</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5625</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5806451612903225</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9058019713261649</v>
+        <v>0.9094982078853048</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9612049549549549</v>
+        <v>0.9733108108108109</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2340425531914894</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3728813559322034</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5621139327385037</v>
+        <v>0.6660947151681537</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02127659574468085</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04081632653061224</v>
+        <v>0.12</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7697895218485473</v>
+        <v>0.642129947380462</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.691021645021645</v>
+        <v>0.7909592326139089</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5260638297872341</v>
+        <v>0.4472517730496454</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5160604054853215</v>
+        <v>0.4445347593582888</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8139644238438851</v>
+        <v>0.8164437434174051</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/mega/MLP/mega-mlp-results.xlsx
+++ b/mbs-perturbation/mega/MLP/mega-mlp-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3381294964028777</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9791666666666666</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5026737967914439</v>
+        <v>0.54320987654321</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8911850358422939</v>
+        <v>0.8345212479827865</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.76</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9094982078853048</v>
+        <v>0.7427380311995697</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.75</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="C4" t="n">
-        <v>0.375</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9733108108108109</v>
+        <v>0.9880280721067841</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2765957446808511</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.28</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6660947151681537</v>
+        <v>0.8710609605063986</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06382978723404255</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="E6" t="n">
-        <v>0.642129947380462</v>
+        <v>0.9221136645108022</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7909592326139089</v>
+        <v>0.8126227828143477</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4472517730496454</v>
+        <v>0.5793868921775898</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4445347593582888</v>
+        <v>0.5693079907439672</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8164437434174051</v>
+        <v>0.8716923952612682</v>
       </c>
     </row>
   </sheetData>
